--- a/biology/Médecine/Alcoolisation/Alcoolisation.xlsx
+++ b/biology/Médecine/Alcoolisation/Alcoolisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'alcoolisation désigne l’ingestion par un sujet d’alcool, en tant qu’elle crée une zone de contact entre ce sujet et l’alcool[1]. C'est donc un processus qui s’étend dans la durée, et non un état ou une affection (comme l’alcoolisme) ; cela ne préjuge aucunement de l’importance de cette zone de contact, qui peut être nulle (c'est le cas des abstinents), permanente (alcoolisme chronique) ou occasionnelle (alcoolisme aigu ou ivresse récréative).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'alcoolisation désigne l’ingestion par un sujet d’alcool, en tant qu’elle crée une zone de contact entre ce sujet et l’alcool. C'est donc un processus qui s’étend dans la durée, et non un état ou une affection (comme l’alcoolisme) ; cela ne préjuge aucunement de l’importance de cette zone de contact, qui peut être nulle (c'est le cas des abstinents), permanente (alcoolisme chronique) ou occasionnelle (alcoolisme aigu ou ivresse récréative).
 </t>
         </is>
       </c>
